--- a/prep/NP/produccion.xlsx
+++ b/prep/NP/produccion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\prep\NP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180F55F1-5AC5-466C-A514-39F9E831C49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A31F07-9262-4EE7-B85D-C08EFC173341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15825" yWindow="2610" windowWidth="15930" windowHeight="15585" activeTab="1" xr2:uid="{52A1D2F8-8CF6-4D1A-ABD5-04BAA26072B9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{52A1D2F8-8CF6-4D1A-ABD5-04BAA26072B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Macrozonas</t>
-  </si>
-  <si>
     <t>% en la formula</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>EJEMPLO  MAX SOSTENIBLE</t>
+  </si>
+  <si>
+    <t>Macrozona</t>
   </si>
 </sst>
 </file>
@@ -449,17 +449,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,7 +778,7 @@
   <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
@@ -904,7 +904,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>2018</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>2018</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <v>2018</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>2018</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38">
         <v>2018</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39">
         <v>2018</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>2019</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>2019</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56">
         <v>2019</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66">
         <v>2019</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B78">
         <v>2019</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B79">
         <v>2019</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B89">
         <v>2020</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B92">
         <v>2020</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B96">
         <v>2020</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B106">
         <v>2020</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B118">
         <v>2020</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B119">
         <v>2020</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B129">
         <v>2021</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B132">
         <v>2021</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B136">
         <v>2021</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B146">
         <v>2021</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B158">
         <v>2021</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B159">
         <v>2021</v>
@@ -2738,11 +2738,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="6.765625" customWidth="1"/>
     <col min="4" max="8" width="8.84375" customWidth="1"/>
     <col min="9" max="9" width="6.07421875" customWidth="1"/>
@@ -2756,13 +2757,13 @@
         <v>36</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>37</v>
@@ -2777,14 +2778,14 @@
         <v>40</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4">
         <v>1</v>
@@ -2803,10 +2804,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="18"/>
+      <c r="A3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="20"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4">
         <v>0.2</v>
@@ -2829,11 +2830,11 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C5" s="3">
         <v>2021</v>
@@ -2843,10 +2844,6 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5">
-        <f>(D5*$D$3)+(E5*$E$3)+(F5*$F$3)+(G5*$G$3)+(H5*$H$3)</f>
-        <v>0</v>
-      </c>
       <c r="J5" t="s">
         <v>40</v>
       </c>
@@ -2854,15 +2851,15 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
-        <v>43</v>
+      <c r="A6" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3">
         <v>2021</v>
@@ -2872,23 +2869,19 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6">
-        <f t="shared" ref="I6:I53" si="0">(D6*$D$3)+(E6*$E$3)+(F6*$F$3)+(G6*$G$3)+(H6*$H$3)</f>
-        <v>0</v>
-      </c>
       <c r="K6">
         <v>0.5</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
-        <v>43</v>
+      <c r="A7" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3">
         <v>2021</v>
@@ -2898,23 +2891,19 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="K7">
         <v>0.5</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="19" t="s">
-        <v>43</v>
+      <c r="A8" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3">
         <v>2021</v>
@@ -2935,22 +2924,22 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I6:I53" si="0">(D8*$D$3)+(E8*$E$3)+(F8*$F$3)+(G8*$G$3)+(H8*$H$3)</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="19" t="s">
-        <v>43</v>
+      <c r="A9" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3">
         <v>2021</v>
@@ -2976,11 +2965,11 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="20" t="s">
-        <v>53</v>
+      <c r="A10" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9">
         <v>2021</v>
@@ -3006,11 +2995,11 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="20" t="s">
-        <v>53</v>
+      <c r="A11" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="9">
         <v>2021</v>
@@ -3036,11 +3025,11 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="20" t="s">
-        <v>53</v>
+      <c r="A12" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="9">
         <v>2021</v>
@@ -3058,11 +3047,11 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="20" t="s">
-        <v>53</v>
+      <c r="A13" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="9">
         <v>2021</v>
@@ -3072,21 +3061,23 @@
         <v>1</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
       <c r="H13" s="9">
         <v>1</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.64999999999999991</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="20" t="s">
-        <v>53</v>
+      <c r="A14" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="9">
         <v>2021</v>
@@ -3108,11 +3099,11 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C16" s="3">
         <v>2020</v>
@@ -3122,17 +3113,13 @@
       <c r="F16" s="3"/>
       <c r="G16" s="7"/>
       <c r="H16" s="3"/>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="19" t="s">
-        <v>43</v>
+      <c r="A17" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3">
         <v>2020</v>
@@ -3142,17 +3129,13 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="19" t="s">
-        <v>43</v>
+      <c r="A18" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3">
         <v>2020</v>
@@ -3162,17 +3145,13 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="19" t="s">
-        <v>43</v>
+      <c r="A19" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3">
         <v>2020</v>
@@ -3198,11 +3177,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="19" t="s">
-        <v>43</v>
+      <c r="A20" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3">
         <v>2020</v>
@@ -3226,11 +3205,11 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="20" t="s">
-        <v>53</v>
+      <c r="A21" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="9">
         <v>2020</v>
@@ -3256,11 +3235,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="20" t="s">
-        <v>53</v>
+      <c r="A22" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="9">
         <v>2020</v>
@@ -3286,11 +3265,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="20" t="s">
-        <v>53</v>
+      <c r="A23" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="9">
         <v>2020</v>
@@ -3308,11 +3287,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="20" t="s">
-        <v>53</v>
+      <c r="A24" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="9">
         <v>2020</v>
@@ -3334,11 +3313,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="20" t="s">
-        <v>53</v>
+      <c r="A25" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="9">
         <v>2020</v>
@@ -3356,11 +3335,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C27" s="3">
         <v>2019</v>
@@ -3370,17 +3349,13 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="19" t="s">
-        <v>43</v>
+      <c r="A28" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3">
         <v>2019</v>
@@ -3390,17 +3365,13 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="19" t="s">
-        <v>43</v>
+      <c r="A29" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3">
         <v>2019</v>
@@ -3410,17 +3381,13 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="19" t="s">
-        <v>43</v>
+      <c r="A30" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="3">
         <v>2019</v>
@@ -3446,11 +3413,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="19" t="s">
-        <v>43</v>
+      <c r="A31" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="3">
         <v>2019</v>
@@ -3476,11 +3443,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="20" t="s">
-        <v>53</v>
+      <c r="A32" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="9">
         <v>2019</v>
@@ -3504,11 +3471,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="20" t="s">
-        <v>53</v>
+      <c r="A33" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="9">
         <v>2019</v>
@@ -3532,11 +3499,11 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="20" t="s">
-        <v>53</v>
+      <c r="A34" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="9">
         <v>2019</v>
@@ -3556,11 +3523,11 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="20" t="s">
-        <v>53</v>
+      <c r="A35" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="9">
         <v>2019</v>
@@ -3584,11 +3551,11 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="20" t="s">
-        <v>53</v>
+      <c r="A36" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="9">
         <v>2019</v>
@@ -3608,11 +3575,11 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C38" s="3">
         <v>2018</v>
@@ -3622,17 +3589,13 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="19" t="s">
-        <v>43</v>
+      <c r="A39" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="3">
         <v>2018</v>
@@ -3642,17 +3605,13 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="19" t="s">
-        <v>43</v>
+      <c r="A40" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3">
         <v>2018</v>
@@ -3662,17 +3621,13 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="19" t="s">
-        <v>43</v>
+      <c r="A41" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="3">
         <v>2018</v>
@@ -3696,11 +3651,11 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="19" t="s">
-        <v>43</v>
+      <c r="A42" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="3">
         <v>2018</v>
@@ -3724,11 +3679,11 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" s="20" t="s">
-        <v>53</v>
+      <c r="A43" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="9">
         <v>2018</v>
@@ -3754,11 +3709,11 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="20" t="s">
-        <v>53</v>
+      <c r="A44" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="9">
         <v>2018</v>
@@ -3784,11 +3739,11 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="20" t="s">
-        <v>53</v>
+      <c r="A45" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="9">
         <v>2018</v>
@@ -3808,11 +3763,11 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="20" t="s">
-        <v>53</v>
+      <c r="A46" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" s="9">
         <v>2018</v>
@@ -3838,11 +3793,11 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="20" t="s">
-        <v>53</v>
+      <c r="A47" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="9">
         <v>2018</v>
@@ -3862,11 +3817,11 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="20" t="s">
-        <v>53</v>
+      <c r="A49" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="9">
         <v>2017</v>
@@ -3892,11 +3847,11 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="20" t="s">
-        <v>53</v>
+      <c r="A50" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="9">
         <v>2017</v>
@@ -3922,11 +3877,11 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="20" t="s">
-        <v>53</v>
+      <c r="A51" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="9">
         <v>2017</v>
@@ -3944,11 +3899,11 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52" s="20" t="s">
-        <v>53</v>
+      <c r="A52" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" s="9">
         <v>2017</v>
@@ -3974,11 +3929,11 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A53" s="20" t="s">
-        <v>53</v>
+      <c r="A53" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="9">
         <v>2017</v>
@@ -4001,6 +3956,7 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4025,7 +3981,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1">
         <v>2017</v>
@@ -4046,10 +4002,10 @@
         <v>2017</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
@@ -4057,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>38756</v>
@@ -4089,7 +4045,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>89240</v>
@@ -4121,7 +4077,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>41512</v>
@@ -4153,7 +4109,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>9798</v>
@@ -4185,7 +4141,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>3574</v>
@@ -4214,10 +4170,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>1684</v>
@@ -4246,7 +4202,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>96249</v>
@@ -4278,7 +4234,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>13140</v>
@@ -4310,7 +4266,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>12873</v>
@@ -4342,7 +4298,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>51375</v>
@@ -4374,7 +4330,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>421</v>
@@ -4406,7 +4362,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>530</v>
@@ -4417,7 +4373,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>7828</v>
@@ -4449,7 +4405,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>92</v>
@@ -4639,7 +4595,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -4897,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11">
@@ -4930,7 +4886,7 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31">
         <v>26292</v>
@@ -4962,7 +4918,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32">
         <v>9647</v>
@@ -4994,7 +4950,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33">
         <v>3904</v>
@@ -5026,7 +4982,7 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34">
         <v>32024</v>
@@ -5058,7 +5014,7 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35">
         <v>1505</v>
@@ -5090,7 +5046,7 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36">
         <v>12167</v>
@@ -5119,10 +5075,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37">
         <v>27837</v>
@@ -5154,7 +5110,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38">
         <v>57144</v>
@@ -5186,7 +5142,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39">
         <v>47774</v>
@@ -5215,10 +5171,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40">
         <v>5609</v>
@@ -5250,7 +5206,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41">
         <v>930</v>
@@ -5282,7 +5238,7 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42">
         <v>20801</v>
@@ -5314,7 +5270,7 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43">
         <v>516</v>
@@ -5343,10 +5299,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44">
         <v>709</v>
@@ -5378,7 +5334,7 @@
         <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45">
         <v>748</v>
@@ -5407,10 +5363,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46">
         <v>5750</v>
@@ -5442,7 +5398,7 @@
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47">
         <v>8176</v>
@@ -5474,7 +5430,7 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48">
         <v>20422</v>
@@ -5506,7 +5462,7 @@
         <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -5535,7 +5491,7 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50">
         <v>24797</v>
@@ -5567,7 +5523,7 @@
         <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5578,7 +5534,7 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52">
         <v>19</v>
@@ -5610,7 +5566,7 @@
         <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53">
         <v>8243</v>
@@ -5642,7 +5598,7 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E54">
         <v>1242</v>
@@ -5667,7 +5623,7 @@
         <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D55">
         <v>6548</v>
@@ -5699,7 +5655,7 @@
         <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D56">
         <v>1233</v>
@@ -5728,7 +5684,7 @@
         <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57">
         <v>946</v>
@@ -5760,7 +5716,7 @@
         <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58">
         <v>8743</v>
